--- a/TPS Screen Project.xlsx
+++ b/TPS Screen Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/ScreenManager/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCD8469-B53A-3249-BBC6-4C274603DFE5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72DC680-F4C2-4F44-9E54-D0A8882E4756}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9280" yWindow="440" windowWidth="16320" windowHeight="15560" xr2:uid="{B3020F1F-7DBC-E94A-AD1F-03F85764C2F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B3020F1F-7DBC-E94A-AD1F-03F85764C2F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -76,13 +76,28 @@
   </si>
   <si>
     <t>Date: 04/21/2018</t>
+  </si>
+  <si>
+    <t>Date: 04/28/2018</t>
+  </si>
+  <si>
+    <t>Get touch keyboard to work with browser</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Test embedded browser</t>
+  </si>
+  <si>
+    <t>Jonah/Matt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,14 +186,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,35 +508,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5B692B-C8BC-674A-9507-E29D629E0114}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="19">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -530,18 +547,18 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="19">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="19">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,30 +581,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>20</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>22</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>0.9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -603,14 +620,14 @@
       <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="3">
-        <v>10</v>
+      <c r="F6" s="5">
+        <v>0.1</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -626,17 +643,142 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
-        <v>10</v>
+      <c r="F7" s="5">
+        <v>0.1</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/TPS Screen Project.xlsx
+++ b/TPS Screen Project.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt.peter\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72DC680-F4C2-4F44-9E54-D0A8882E4756}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B3020F1F-7DBC-E94A-AD1F-03F85764C2F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -91,12 +90,21 @@
   </si>
   <si>
     <t>Jonah/Matt</t>
+  </si>
+  <si>
+    <t>Date: 05/05/2018</t>
+  </si>
+  <si>
+    <t>Matt/Michael</t>
+  </si>
+  <si>
+    <t>Limit features available in standard browser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -141,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -177,11 +185,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -194,6 +211,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,11 +527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5B692B-C8BC-674A-9507-E29D629E0114}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -519,7 +539,7 @@
     <col min="1" max="1" width="53" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
@@ -773,12 +793,123 @@
         <v>14</v>
       </c>
     </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="3">
+        <v>12</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="4">
+        <v>15</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A23:G23"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="A13:G13"/>
+    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/TPS Screen Project.xlsx
+++ b/TPS Screen Project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="9315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>Limit features available in standard browser</t>
+  </si>
+  <si>
+    <t>Date: 05/12/2018</t>
+  </si>
+  <si>
+    <t>Remove user access to side and top bars</t>
+  </si>
+  <si>
+    <t>Make windows use correct percentage of screen space</t>
   </si>
 </sst>
 </file>
@@ -198,22 +207,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -552,11 +562,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -568,15 +578,15 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -677,9 +687,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -691,15 +701,15 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -800,9 +810,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -814,15 +824,15 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -863,7 +873,7 @@
       <c r="E25" s="3">
         <v>12</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="7">
         <v>0.6</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -894,16 +904,141 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="3">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="3">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A23:G23"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="E1:G1"/>
@@ -912,6 +1047,6 @@
     <mergeCell ref="E21:G21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TPS Screen Project.xlsx
+++ b/TPS Screen Project.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt.peter\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/ScreenManager/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F3D893-E1FB-6E4C-BD69-AE161E1EB23D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -108,13 +109,19 @@
   </si>
   <si>
     <t>Make windows use correct percentage of screen space</t>
+  </si>
+  <si>
+    <t>Continue documentation</t>
+  </si>
+  <si>
+    <t>Jonah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,13 +224,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,25 +544,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -568,7 +575,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -577,18 +584,18 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" ht="19">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="19">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -634,7 +641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -657,7 +664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -680,7 +687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="19">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -691,7 +698,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -700,18 +707,18 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:7" ht="19">
+      <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="19">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -734,7 +741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="19">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -757,7 +764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="19">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -780,7 +787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="19">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -803,7 +810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="19">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -814,7 +821,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="19">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -823,18 +830,18 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:7" ht="19">
+      <c r="A23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" ht="19">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,7 +864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="19">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -880,7 +887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="19">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -903,7 +910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="19">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -912,7 +919,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="19">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -923,7 +930,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="19">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -932,18 +939,18 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:7" ht="19">
+      <c r="A32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="19">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -966,7 +973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="19">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
@@ -989,7 +996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="19">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
@@ -1005,14 +1012,14 @@
       <c r="E35" s="3">
         <v>6</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="9">
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="19">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -1028,11 +1035,34 @@
       <c r="E36" s="3">
         <v>2</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="9">
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19">
+      <c r="A37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/TPS Screen Project.xlsx
+++ b/TPS Screen Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/ScreenManager/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F3D893-E1FB-6E4C-BD69-AE161E1EB23D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3459587D-14F2-4D09-B196-2DDA1BD4B57E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
   <si>
     <t>Task</t>
   </si>
@@ -115,13 +115,16 @@
   </si>
   <si>
     <t>Jonah</t>
+  </si>
+  <si>
+    <t>Date: 05/19/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -231,6 +234,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,24 +549,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -575,7 +579,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="19">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -584,7 +588,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="19">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -595,7 +599,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" ht="19">
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19">
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -641,7 +645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -664,7 +668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -687,7 +691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19">
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -698,7 +702,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="19">
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -707,7 +711,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="19">
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
@@ -718,7 +722,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="19">
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -741,7 +745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19">
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -764,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19">
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -787,7 +791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19">
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -810,7 +814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19">
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -821,7 +825,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" ht="19">
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -830,7 +834,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="19">
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>7</v>
       </c>
@@ -841,7 +845,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="19">
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -864,7 +868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19">
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -887,7 +891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19">
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -910,7 +914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19">
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -919,7 +923,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="19">
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -930,7 +934,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="19">
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -939,7 +943,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="19">
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>7</v>
       </c>
@@ -950,7 +954,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="19">
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -973,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19">
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19">
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19">
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19">
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>27</v>
       </c>
@@ -1065,8 +1069,96 @@
         <v>12</v>
       </c>
     </row>
+    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="3">
+        <v>30</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A43:G43"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A23:G23"/>

--- a/TPS Screen Project.xlsx
+++ b/TPS Screen Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3459587D-14F2-4D09-B196-2DDA1BD4B57E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB57AD9-7249-4CB4-A6BC-79424B923813}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="43">
   <si>
     <t>Task</t>
   </si>
@@ -118,6 +118,45 @@
   </si>
   <si>
     <t>Date: 05/19/2018</t>
+  </si>
+  <si>
+    <t>Date: 05/26/2018</t>
+  </si>
+  <si>
+    <t>Date: 06/02/2018</t>
+  </si>
+  <si>
+    <t>Compare possible languages for Vending Machine</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Date: 06/16/2018</t>
+  </si>
+  <si>
+    <t>Add script to implement Firefox Addons</t>
+  </si>
+  <si>
+    <t>Date: 06/23/2018</t>
+  </si>
+  <si>
+    <t>Worked on base Vending Machine app</t>
+  </si>
+  <si>
+    <t>Date: 07/07/2018</t>
+  </si>
+  <si>
+    <t>Worked on product loading in Vending Machine app</t>
+  </si>
+  <si>
+    <t>Date: 07/14/2018</t>
+  </si>
+  <si>
+    <t>Make graphics for Vending Machine app</t>
+  </si>
+  <si>
+    <t>Date: 07/21/2018</t>
   </si>
 </sst>
 </file>
@@ -217,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -228,13 +267,14 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -573,11 +613,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -589,15 +629,15 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -698,9 +738,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -712,15 +752,15 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -821,9 +861,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -835,15 +875,15 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -930,9 +970,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -944,15 +984,15 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1076,9 +1116,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -1090,15 +1130,15 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
@@ -1147,26 +1187,657 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="3">
+        <v>30</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="3">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4</v>
+      </c>
+      <c r="F61" s="7">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="3">
+        <v>15</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="3">
+        <v>15</v>
+      </c>
+      <c r="F69" s="7">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="3">
+        <v>10</v>
+      </c>
+      <c r="C77" s="3">
+        <v>3</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="3">
+        <v>8</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="3">
+        <v>10</v>
+      </c>
+      <c r="C85" s="3">
+        <v>3</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="3">
+        <v>4</v>
+      </c>
+      <c r="F85" s="7">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="3">
+        <v>10</v>
+      </c>
+      <c r="C86" s="3">
+        <v>3</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="3">
+        <v>3</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="90" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" s="3">
+        <v>10</v>
+      </c>
+      <c r="C94" s="3">
+        <v>3</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" s="3">
+        <v>4</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="3">
+        <v>30</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="3">
+        <v>15</v>
+      </c>
+      <c r="F95" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+    </row>
+    <row r="100" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" s="3">
+        <v>10</v>
+      </c>
+      <c r="C103" s="3">
+        <v>3</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" s="3">
+        <v>6</v>
+      </c>
+      <c r="F103" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" s="3">
+        <v>30</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="3">
+        <v>10</v>
+      </c>
+      <c r="F104" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="24">
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="E21:G21"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/TPS Screen Project.xlsx
+++ b/TPS Screen Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB57AD9-7249-4CB4-A6BC-79424B923813}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC3BDD2-9FC4-4F9F-AC9C-C24E8BD56912}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="49">
   <si>
     <t>Task</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t>Date: 07/21/2018</t>
+  </si>
+  <si>
+    <t>Date: 07/28/2018</t>
+  </si>
+  <si>
+    <t>Date: 08/04/2018</t>
+  </si>
+  <si>
+    <t>Date: 08/11/2018</t>
+  </si>
+  <si>
+    <t>Worked on programming of Vending Machine app</t>
+  </si>
+  <si>
+    <t>Date: 08/18/2018</t>
+  </si>
+  <si>
+    <t>Date: 08/25/2018</t>
   </si>
 </sst>
 </file>
@@ -256,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -275,6 +293,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -613,11 +638,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -629,15 +654,15 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -738,9 +763,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -752,15 +777,15 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -861,9 +886,9 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -875,15 +900,15 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -970,9 +995,9 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -984,15 +1009,15 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1116,9 +1141,9 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -1130,15 +1155,15 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
@@ -1202,9 +1227,9 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
@@ -1216,15 +1241,15 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
@@ -1279,9 +1304,9 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
@@ -1293,15 +1318,15 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
     </row>
     <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
@@ -1356,9 +1381,9 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
@@ -1370,15 +1395,15 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
     </row>
     <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
@@ -1433,9 +1458,9 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
@@ -1447,15 +1472,15 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
@@ -1510,9 +1535,9 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
     </row>
     <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
@@ -1524,15 +1549,15 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
     </row>
     <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
@@ -1619,9 +1644,9 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
     </row>
     <row r="91" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
@@ -1633,15 +1658,15 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
     </row>
     <row r="93" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
@@ -1806,40 +1831,515 @@
         <v>10</v>
       </c>
       <c r="F104" s="7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="108" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" s="3">
+        <v>10</v>
+      </c>
+      <c r="C112" s="3">
+        <v>3</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112" s="3">
+        <v>3</v>
+      </c>
+      <c r="F112" s="7">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113" s="3">
+        <v>30</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="3">
+        <v>15</v>
+      </c>
+      <c r="F113" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A119" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" s="3">
+        <v>40</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="3">
+        <v>8</v>
+      </c>
+      <c r="F121" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+    </row>
+    <row r="126" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A127" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A129" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129" s="3">
+        <v>30</v>
+      </c>
+      <c r="C129" s="3">
+        <v>3</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="3">
+        <v>10</v>
+      </c>
+      <c r="F129" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" s="3">
+        <v>40</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="3">
+        <v>5</v>
+      </c>
+      <c r="F130" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+    </row>
+    <row r="135" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A136" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+    </row>
+    <row r="137" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A138" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B138" s="3">
+        <v>30</v>
+      </c>
+      <c r="C138" s="3">
+        <v>3</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" s="3">
+        <v>10</v>
+      </c>
+      <c r="F138" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B139" s="3">
+        <v>40</v>
+      </c>
+      <c r="C139" s="3">
+        <v>1</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" s="3">
+        <v>2</v>
+      </c>
+      <c r="F139" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+    </row>
+    <row r="144" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A145" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+    </row>
+    <row r="146" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A147" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B147" s="3">
+        <v>40</v>
+      </c>
+      <c r="C147" s="3">
+        <v>3</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E147" s="3">
+        <v>15</v>
+      </c>
+      <c r="F147" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B148" s="3">
+        <v>40</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" s="3">
+        <v>1</v>
+      </c>
+      <c r="F148" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="22">
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="E65:G65"/>
     <mergeCell ref="E90:G90"/>
     <mergeCell ref="A92:G92"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="A101:G101"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="E73:G73"/>
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="E81:G81"/>
     <mergeCell ref="A83:G83"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A23:G23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TPS Screen Project.xlsx
+++ b/TPS Screen Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/ScreenManager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC3BDD2-9FC4-4F9F-AC9C-C24E8BD56912}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39088EC-74CD-9F41-B8F3-5C680E3FAFED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="440" windowWidth="24660" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -175,13 +175,49 @@
   </si>
   <si>
     <t>Date: 08/25/2018</t>
+  </si>
+  <si>
+    <t>Date: 09/15/2018</t>
+  </si>
+  <si>
+    <t>Items auto scroll when no user is present</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Keep the screen active / awake</t>
+  </si>
+  <si>
+    <t>Set the browser home page to wmich.edu</t>
+  </si>
+  <si>
+    <t>Installation script</t>
+  </si>
+  <si>
+    <t>Add advertisment screen space</t>
+  </si>
+  <si>
+    <t>Build one screen management script</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Met with Asamadu and got feedback on the project.  He gave us</t>
+  </si>
+  <si>
+    <t>advice to move in the direction of having a demo available for the entire</t>
+  </si>
+  <si>
+    <t>screen so that it can shown to investors.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -300,6 +336,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,37 +657,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="19">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -653,18 +696,18 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" ht="19">
+      <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" ht="19">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -710,7 +753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -733,7 +776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -756,18 +799,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="19">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="19">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -776,18 +819,18 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:7" ht="19">
+      <c r="A13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" ht="19">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -810,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="19">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -833,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="19">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -856,7 +899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="19">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -879,18 +922,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="19">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="19">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -899,18 +942,18 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:7" ht="19">
+      <c r="A23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" ht="19">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -933,7 +976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="19">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -956,7 +999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="19">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -979,7 +1022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="19">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -988,18 +1031,18 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="19">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="19">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1008,18 +1051,18 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:7" ht="19">
+      <c r="A32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" ht="19">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="19">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
@@ -1065,7 +1108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="19">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
@@ -1088,7 +1131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="19">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -1111,7 +1154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="19">
       <c r="A37" s="3" t="s">
         <v>27</v>
       </c>
@@ -1134,18 +1177,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="19">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" ht="19">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1154,18 +1197,18 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:7" ht="19">
+      <c r="A43" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="1:7" ht="19">
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="19">
       <c r="A45" s="3" t="s">
         <v>23</v>
       </c>
@@ -1211,7 +1254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1220,18 +1263,18 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="49" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="19">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7" ht="19">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1240,18 +1283,18 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:7" ht="19">
+      <c r="A51" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-    </row>
-    <row r="52" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" spans="1:7" ht="19">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="19">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -1297,18 +1340,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="19">
       <c r="A57" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-    </row>
-    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7" ht="19">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1317,18 +1360,18 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+    <row r="59" spans="1:7" ht="19">
+      <c r="A59" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="1:7" ht="19">
       <c r="A60" s="2" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="19">
       <c r="A61" s="3" t="s">
         <v>32</v>
       </c>
@@ -1374,18 +1417,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="19">
       <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-    </row>
-    <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="1:7" ht="19">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1394,18 +1437,18 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+    <row r="67" spans="1:7" ht="19">
+      <c r="A67" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-    </row>
-    <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+    </row>
+    <row r="68" spans="1:7" ht="19">
       <c r="A68" s="2" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="19">
       <c r="A69" s="3" t="s">
         <v>35</v>
       </c>
@@ -1451,18 +1494,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="19">
       <c r="A73" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-    </row>
-    <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+    </row>
+    <row r="74" spans="1:7" ht="19">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1471,18 +1514,18 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
+    <row r="75" spans="1:7" ht="19">
+      <c r="A75" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-    </row>
-    <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+    </row>
+    <row r="76" spans="1:7" ht="19">
       <c r="A76" s="2" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="19">
       <c r="A77" s="3" t="s">
         <v>37</v>
       </c>
@@ -1528,18 +1571,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="19">
       <c r="A81" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-    </row>
-    <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+    </row>
+    <row r="82" spans="1:7" ht="19">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1548,18 +1591,18 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
+    <row r="83" spans="1:7" ht="19">
+      <c r="A83" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-    </row>
-    <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+    </row>
+    <row r="84" spans="1:7" ht="19">
       <c r="A84" s="2" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="19">
       <c r="A85" s="3" t="s">
         <v>37</v>
       </c>
@@ -1605,7 +1648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="19">
       <c r="A86" s="3" t="s">
         <v>39</v>
       </c>
@@ -1628,7 +1671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="19">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -1637,18 +1680,18 @@
       <c r="F87" s="13"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="90" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="19">
       <c r="A90" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-    </row>
-    <row r="91" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+    </row>
+    <row r="91" spans="1:7" ht="19">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1657,18 +1700,18 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="15" t="s">
+    <row r="92" spans="1:7" ht="19">
+      <c r="A92" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-    </row>
-    <row r="93" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+    </row>
+    <row r="93" spans="1:7" ht="19">
       <c r="A93" s="2" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="19">
       <c r="A94" s="3" t="s">
         <v>39</v>
       </c>
@@ -1714,7 +1757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="19">
       <c r="A95" s="3" t="s">
         <v>41</v>
       </c>
@@ -1737,7 +1780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="19">
       <c r="A99" s="1" t="s">
         <v>42</v>
       </c>
@@ -1748,7 +1791,7 @@
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="19">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1757,7 +1800,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="19">
       <c r="A101" s="12" t="s">
         <v>7</v>
       </c>
@@ -1768,7 +1811,7 @@
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="19">
       <c r="A102" s="2" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="19">
       <c r="A103" s="3" t="s">
         <v>39</v>
       </c>
@@ -1814,7 +1857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="19">
       <c r="A104" s="3" t="s">
         <v>41</v>
       </c>
@@ -1837,7 +1880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="19">
       <c r="A108" s="1" t="s">
         <v>43</v>
       </c>
@@ -1848,7 +1891,7 @@
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
     </row>
-    <row r="109" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="19">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1857,7 +1900,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="19">
       <c r="A110" s="12" t="s">
         <v>7</v>
       </c>
@@ -1868,7 +1911,7 @@
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="19">
       <c r="A111" s="2" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="19">
       <c r="A112" s="3" t="s">
         <v>39</v>
       </c>
@@ -1914,7 +1957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="19">
       <c r="A113" s="3" t="s">
         <v>41</v>
       </c>
@@ -1937,7 +1980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="19">
       <c r="A117" s="1" t="s">
         <v>44</v>
       </c>
@@ -1948,7 +1991,7 @@
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="19">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1957,7 +2000,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="19">
       <c r="A119" s="12" t="s">
         <v>7</v>
       </c>
@@ -1968,7 +2011,7 @@
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="19">
       <c r="A120" s="2" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +2034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="19">
       <c r="A121" s="3" t="s">
         <v>41</v>
       </c>
@@ -2014,7 +2057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="19">
       <c r="A125" s="1" t="s">
         <v>45</v>
       </c>
@@ -2025,7 +2068,7 @@
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
     </row>
-    <row r="126" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="19">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2034,7 +2077,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="19">
       <c r="A127" s="12" t="s">
         <v>7</v>
       </c>
@@ -2045,7 +2088,7 @@
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="19">
       <c r="A128" s="2" t="s">
         <v>0</v>
       </c>
@@ -2068,7 +2111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="19">
       <c r="A129" s="16" t="s">
         <v>46</v>
       </c>
@@ -2091,7 +2134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="19">
       <c r="A130" s="3" t="s">
         <v>41</v>
       </c>
@@ -2114,7 +2157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="19">
       <c r="A134" s="1" t="s">
         <v>47</v>
       </c>
@@ -2125,7 +2168,7 @@
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
     </row>
-    <row r="135" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="19">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2134,7 +2177,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="19">
       <c r="A136" s="12" t="s">
         <v>7</v>
       </c>
@@ -2145,7 +2188,7 @@
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="19">
       <c r="A137" s="2" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="19">
       <c r="A138" s="16" t="s">
         <v>46</v>
       </c>
@@ -2191,7 +2234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="19">
       <c r="A139" s="3" t="s">
         <v>41</v>
       </c>
@@ -2214,7 +2257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="19">
       <c r="A143" s="1" t="s">
         <v>48</v>
       </c>
@@ -2225,7 +2268,7 @@
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
     </row>
-    <row r="144" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="19">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2234,7 +2277,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="19">
       <c r="A145" s="12" t="s">
         <v>7</v>
       </c>
@@ -2245,7 +2288,7 @@
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="19">
       <c r="A146" s="2" t="s">
         <v>0</v>
       </c>
@@ -2268,7 +2311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="19">
       <c r="A147" s="16" t="s">
         <v>46</v>
       </c>
@@ -2291,7 +2334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="19">
       <c r="A148" s="3" t="s">
         <v>41</v>
       </c>
@@ -2314,23 +2357,266 @@
         <v>12</v>
       </c>
     </row>
+    <row r="151" spans="1:7" ht="19">
+      <c r="A151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+    </row>
+    <row r="152" spans="1:7" ht="19">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" ht="19">
+      <c r="A153" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+    </row>
+    <row r="154" spans="1:7" ht="19">
+      <c r="A154" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="19">
+      <c r="A155" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B155" s="3">
+        <v>40</v>
+      </c>
+      <c r="C155" s="3">
+        <v>3</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" s="3">
+        <v>15</v>
+      </c>
+      <c r="F155" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="19">
+      <c r="A156" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B156" s="3">
+        <v>40</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="3">
+        <v>1</v>
+      </c>
+      <c r="F156" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="19">
+      <c r="A157" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B157" s="3">
+        <v>8</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0</v>
+      </c>
+      <c r="F157" s="7">
+        <v>0</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="19">
+      <c r="A158" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="3">
+        <v>1</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0</v>
+      </c>
+      <c r="F158" s="7">
+        <v>0</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="19">
+      <c r="A159" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0</v>
+      </c>
+      <c r="F159" s="7">
+        <v>0</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="19">
+      <c r="A160" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B160" s="3">
+        <v>20</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0</v>
+      </c>
+      <c r="F160" s="7">
+        <v>0</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="19">
+      <c r="A161" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B161" s="3">
+        <v>20</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0</v>
+      </c>
+      <c r="F161" s="7">
+        <v>0</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="19">
+      <c r="A162" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B162" s="3">
+        <v>5</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0</v>
+      </c>
+      <c r="F162" s="7">
+        <v>0</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="19">
+      <c r="A164" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="19">
+      <c r="A165" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="19">
+      <c r="A166" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="19">
+      <c r="A167" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="E65:G65"/>
     <mergeCell ref="E90:G90"/>
     <mergeCell ref="A92:G92"/>
     <mergeCell ref="A67:G67"/>
@@ -2338,6 +2624,21 @@
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="E81:G81"/>
     <mergeCell ref="A83:G83"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A23:G23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TPS Screen Project.xlsx
+++ b/TPS Screen Project.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/ScreenManager/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAE-USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19865AB6-AE57-B741-AE94-8E4EB8F499C5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="465" windowWidth="24675" windowHeight="15540" tabRatio="985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +251,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -751,26 +750,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A200" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F221" sqref="F221"/>
+      <selection activeCell="L219" sqref="L219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.1640625"/>
+    <col min="1" max="1" width="54.125"/>
     <col min="2" max="2" width="14.5"/>
-    <col min="3" max="3" width="6.83203125"/>
+    <col min="3" max="3" width="6.875"/>
     <col min="4" max="4" width="15"/>
-    <col min="5" max="5" width="17.33203125"/>
-    <col min="6" max="6" width="12.83203125"/>
+    <col min="5" max="5" width="17.375"/>
+    <col min="6" max="6" width="12.875"/>
     <col min="7" max="7" width="12.5"/>
-    <col min="8" max="1025" width="11.1640625"/>
+    <col min="8" max="1025" width="11.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +782,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -792,7 +791,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
@@ -803,7 +802,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,7 +825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -849,7 +848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -872,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -895,7 +894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -906,7 +905,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -915,7 +914,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>2</v>
       </c>
@@ -926,7 +925,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -949,7 +948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -972,7 +971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -995,7 +994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1018,7 +1017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1029,7 +1028,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1038,7 +1037,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1048,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1118,7 +1117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1127,7 +1126,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1137,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1147,7 +1146,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>2</v>
       </c>
@@ -1158,7 +1157,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>22</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>25</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>26</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>27</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -1284,7 +1283,7 @@
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1293,7 +1292,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>2</v>
       </c>
@@ -1304,7 +1303,7 @@
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>22</v>
       </c>
@@ -1350,7 +1349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1359,7 +1358,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -1370,7 +1369,7 @@
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
     </row>
-    <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1379,7 +1378,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>2</v>
       </c>
@@ -1390,7 +1389,7 @@
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
     </row>
-    <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>22</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>31</v>
       </c>
@@ -1447,7 +1446,7 @@
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
     </row>
-    <row r="58" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1456,7 +1455,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
         <v>2</v>
       </c>
@@ -1467,7 +1466,7 @@
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
     </row>
-    <row r="60" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>3</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>32</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
@@ -1524,7 +1523,7 @@
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1533,7 +1532,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>2</v>
       </c>
@@ -1544,7 +1543,7 @@
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
     </row>
-    <row r="68" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>3</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>35</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>36</v>
       </c>
@@ -1601,7 +1600,7 @@
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
     </row>
-    <row r="74" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1610,7 +1609,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>2</v>
       </c>
@@ -1621,7 +1620,7 @@
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
     </row>
-    <row r="76" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>3</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>37</v>
       </c>
@@ -1667,7 +1666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,7 +1677,7 @@
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
     </row>
-    <row r="82" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1687,7 +1686,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>2</v>
       </c>
@@ -1698,7 +1697,7 @@
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
     </row>
-    <row r="84" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>3</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>37</v>
       </c>
@@ -1744,7 +1743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>39</v>
       </c>
@@ -1767,7 +1766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -1776,7 +1775,7 @@
       <c r="F87" s="12"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="90" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>40</v>
       </c>
@@ -1787,7 +1786,7 @@
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
     </row>
-    <row r="91" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1796,7 +1795,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
         <v>2</v>
       </c>
@@ -1807,7 +1806,7 @@
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
     </row>
-    <row r="93" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>39</v>
       </c>
@@ -1853,7 +1852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>41</v>
       </c>
@@ -1876,7 +1875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>42</v>
       </c>
@@ -1887,7 +1886,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1896,7 +1895,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>2</v>
       </c>
@@ -1907,7 +1906,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>3</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>39</v>
       </c>
@@ -1953,7 +1952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>41</v>
       </c>
@@ -1976,7 +1975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>43</v>
       </c>
@@ -1987,7 +1986,7 @@
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
     </row>
-    <row r="109" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1996,7 +1995,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>2</v>
       </c>
@@ -2007,7 +2006,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>3</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>39</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>41</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>44</v>
       </c>
@@ -2087,7 +2086,7 @@
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2096,7 +2095,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>2</v>
       </c>
@@ -2107,7 +2106,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>3</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>41</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>45</v>
       </c>
@@ -2164,7 +2163,7 @@
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
     </row>
-    <row r="126" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2173,7 +2172,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>2</v>
       </c>
@@ -2184,7 +2183,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
         <v>46</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>41</v>
       </c>
@@ -2253,7 +2252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>47</v>
       </c>
@@ -2264,7 +2263,7 @@
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
     </row>
-    <row r="135" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2273,7 +2272,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -2284,7 +2283,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>3</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
         <v>46</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>41</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>48</v>
       </c>
@@ -2364,7 +2363,7 @@
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
     </row>
-    <row r="144" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2373,7 +2372,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>2</v>
       </c>
@@ -2384,7 +2383,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>3</v>
       </c>
@@ -2407,7 +2406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
         <v>46</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>41</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>49</v>
       </c>
@@ -2464,7 +2463,7 @@
       <c r="F152" s="13"/>
       <c r="G152" s="13"/>
     </row>
-    <row r="153" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2473,7 +2472,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>2</v>
       </c>
@@ -2484,7 +2483,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,7 +2506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
         <v>46</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>41</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>50</v>
       </c>
@@ -2564,7 +2563,7 @@
       <c r="F161" s="13"/>
       <c r="G161" s="13"/>
     </row>
-    <row r="162" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2573,7 +2572,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>2</v>
       </c>
@@ -2584,7 +2583,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,7 +2606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
         <v>46</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>41</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>51</v>
       </c>
@@ -2664,7 +2663,7 @@
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
     </row>
-    <row r="171" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2673,7 +2672,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>2</v>
       </c>
@@ -2684,7 +2683,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,7 +2706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
         <v>46</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>41</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>52</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>54</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>55</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>56</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>57</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>58</v>
       </c>
@@ -2891,27 +2890,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>63</v>
       </c>
@@ -2922,7 +2921,7 @@
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
     </row>
-    <row r="191" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2931,7 +2930,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>2</v>
       </c>
@@ -2942,7 +2941,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
         <v>46</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
         <v>41</v>
       </c>
@@ -3011,7 +3010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
         <v>52</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
         <v>54</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="14" t="s">
         <v>55</v>
       </c>
@@ -3080,7 +3079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
         <v>56</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
         <v>57</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
         <v>58</v>
       </c>
@@ -3149,27 +3148,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>67</v>
       </c>
@@ -3180,7 +3179,7 @@
       <c r="F209" s="13"/>
       <c r="G209" s="13"/>
     </row>
-    <row r="210" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -3189,7 +3188,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>2</v>
       </c>
@@ -3200,7 +3199,7 @@
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
     </row>
-    <row r="212" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,7 +3222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="14" t="s">
         <v>46</v>
       </c>
@@ -3246,7 +3245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="14" t="s">
         <v>41</v>
       </c>
@@ -3266,10 +3265,10 @@
         <v>0.95</v>
       </c>
       <c r="G214" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
         <v>52</v>
       </c>
@@ -3289,10 +3288,10 @@
         <v>0.9</v>
       </c>
       <c r="G215" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="14" t="s">
         <v>54</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="14" t="s">
         <v>56</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="14" t="s">
         <v>57</v>
       </c>
@@ -3358,10 +3357,10 @@
         <v>1</v>
       </c>
       <c r="G218" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
         <v>58</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="14" t="s">
         <v>71</v>
       </c>
@@ -3401,13 +3400,13 @@
         <v>2</v>
       </c>
       <c r="F220" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G220" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="14" t="s">
         <v>72</v>
       </c>
@@ -3430,28 +3429,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="E65:G65"/>
     <mergeCell ref="E90:G90"/>
     <mergeCell ref="A92:G92"/>
     <mergeCell ref="A67:G67"/>
@@ -3459,21 +3473,6 @@
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="E81:G81"/>
     <mergeCell ref="A83:G83"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="E21:G21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
